--- a/PainelEXE/dados/Fila_de_prioridades_do_laboratorio.xlsx
+++ b/PainelEXE/dados/Fila_de_prioridades_do_laboratorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfsan\OneDrive\Documentos\PainelPrioridades\PainelEXE\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6541825-492D-4B7E-93F9-C89B50E6FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429341B4-00FB-40AF-AD31-A8AE01FF7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Computador Teravix i3-10105 8Gb Ssd 256Gb W11P DTM12T410</t>
   </si>
   <si>
-    <t>CV-0000123928</t>
-  </si>
-  <si>
     <t>MUNICIPIO DE CAPELINHA</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>Possibilidade</t>
+  </si>
+  <si>
+    <t>SEM n?</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -938,22 +938,7 @@
     <xf numFmtId="8" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,14 +965,48 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1900,6 +1919,21 @@
     <dataField name="Soma de Quantidade Solicitada" fld="8" baseField="0" baseItem="0"/>
     <dataField name="Soma de  Valor Total " fld="9" baseField="0" baseItem="0" numFmtId="8"/>
   </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2177,11 +2211,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="101.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -2194,7 +2230,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -2203,19 +2239,19 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -2227,7 +2263,7 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
+      <c r="A2" s="46">
         <v>45868</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2236,19 +2272,19 @@
       <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="42">
         <v>121564</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="26">
@@ -2260,7 +2296,7 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="A3" s="47">
         <v>45879</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -2269,19 +2305,19 @@
       <c r="C3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="29">
@@ -2293,7 +2329,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="46">
         <v>45846</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -2302,19 +2338,19 @@
       <c r="C4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="38" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="26">
@@ -2326,7 +2362,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="A5" s="46">
         <v>45846</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2335,19 +2371,19 @@
       <c r="C5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="26">
@@ -2359,7 +2395,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+      <c r="A6" s="46">
         <v>45835</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2368,19 +2404,19 @@
       <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="26">
@@ -2392,29 +2428,29 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="48">
         <v>45832</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="H7" s="40" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>37</v>
       </c>
       <c r="I7" s="32">
         <v>2</v>
@@ -2425,29 +2461,29 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
+      <c r="A8" s="46">
         <v>45832</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="H8" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="26">
         <v>2</v>
@@ -2458,29 +2494,29 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
+      <c r="A9" s="46">
         <v>45847</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="42">
+        <v>120979</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="47">
-        <v>120979</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="H9" s="38" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="26">
         <v>2</v>
@@ -2491,29 +2527,29 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="A10" s="46">
         <v>45848</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="F10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="H10" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>50</v>
       </c>
       <c r="I10" s="26">
         <v>1</v>
@@ -2524,29 +2560,29 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="A11" s="46">
         <v>45848</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="H11" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="I11" s="26">
         <v>1</v>
@@ -2557,29 +2593,29 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+      <c r="A12" s="46">
         <v>45848</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>57</v>
+      <c r="E12" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="26">
         <v>4</v>
@@ -2590,29 +2626,29 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="46">
         <v>45848</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="F13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="H13" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>65</v>
       </c>
       <c r="I13" s="26">
         <v>1</v>
@@ -2623,29 +2659,29 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
+      <c r="A14" s="46">
         <v>45848</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="H14" s="38" t="s">
         <v>69</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>70</v>
       </c>
       <c r="I14" s="26">
         <v>15</v>
@@ -2656,29 +2692,29 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="46">
         <v>45848</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="47" t="s">
+      <c r="E15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="F15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="H15" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="I15" s="26">
         <v>50</v>
@@ -2689,29 +2725,29 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
+      <c r="A16" s="46">
         <v>45849</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>78</v>
+      <c r="E16" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="I16" s="26">
         <v>1</v>
@@ -2722,29 +2758,29 @@
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="46">
         <v>45849</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>78</v>
+      <c r="E17" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="I17" s="26">
         <v>1</v>
@@ -2755,29 +2791,29 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" s="22" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+      <c r="A18" s="46">
         <v>45852</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="42">
+        <v>121721</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="47">
-        <v>121721</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="F18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="43" t="s">
+      <c r="H18" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>85</v>
       </c>
       <c r="I18" s="26">
         <v>3</v>
@@ -2788,29 +2824,29 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="46">
         <v>45854</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="H19" s="38" t="s">
         <v>88</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="I19" s="26">
         <v>2</v>
@@ -2820,29 +2856,29 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+      <c r="A20" s="46">
         <v>45854</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="F20" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="H20" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>95</v>
       </c>
       <c r="I20" s="26">
         <v>4</v>
@@ -2852,29 +2888,29 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="46">
         <v>45855</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="F21" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="H21" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>100</v>
       </c>
       <c r="I21" s="26">
         <v>2</v>
@@ -2884,29 +2920,29 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="37">
+      <c r="A22" s="46">
         <v>45857</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="F22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="43" t="s">
+      <c r="H22" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="26">
         <v>18</v>
@@ -2916,29 +2952,29 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="46">
         <v>45858</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="42">
         <v>121720</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="G23" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="H23" s="38" t="s">
         <v>109</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="I23" s="26">
         <v>2</v>
@@ -2948,29 +2984,29 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
+      <c r="A24" s="46">
         <v>45859</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="G24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="H24" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="I24" s="26">
         <v>23</v>
@@ -2980,29 +3016,29 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="A25" s="46">
         <v>45861</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>114</v>
       </c>
       <c r="I25" s="26">
         <v>1</v>
@@ -3012,29 +3048,29 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="46">
         <v>45863</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="47" t="s">
+      <c r="E26" s="38" t="s">
         <v>116</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>117</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I26" s="26">
         <v>1</v>
@@ -3044,29 +3080,29 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
+      <c r="A27" s="46">
         <v>45863</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>117</v>
+      <c r="E27" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I27" s="26">
         <v>1</v>
@@ -3076,29 +3112,29 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="A28" s="46">
         <v>45863</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>117</v>
+      <c r="E28" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I28" s="26">
         <v>1</v>
@@ -3108,29 +3144,29 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
+      <c r="A29" s="46">
         <v>45863</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>117</v>
+      <c r="E29" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I29" s="26">
         <v>1</v>
@@ -3140,29 +3176,29 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
+      <c r="A30" s="46">
         <v>45863</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>117</v>
+      <c r="E30" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I30" s="26">
         <v>1</v>
@@ -3172,29 +3208,29 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
+      <c r="A31" s="46">
         <v>45865</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>117</v>
+      <c r="E31" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I31" s="26">
         <v>1</v>
@@ -3204,29 +3240,29 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
+      <c r="A32" s="46">
         <v>45865</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>117</v>
+      <c r="E32" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I32" s="26">
         <v>2</v>
@@ -3236,29 +3272,29 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
+      <c r="A33" s="46">
         <v>45865</v>
       </c>
       <c r="B33" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>117</v>
+      <c r="E33" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="I33" s="26">
         <v>3</v>
@@ -3268,29 +3304,29 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
+      <c r="A34" s="46">
         <v>45871</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="I34" s="26">
         <v>2</v>
@@ -3300,29 +3336,29 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="46">
         <v>45876</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="47" t="s">
+      <c r="E35" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="F35" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="G35" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="H35" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I35" s="26">
         <v>2</v>
@@ -3332,29 +3368,29 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="37">
+      <c r="A36" s="46">
         <v>45876</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="G36" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="H36" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I36" s="26">
         <v>10</v>
@@ -3364,29 +3400,29 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="37">
+      <c r="A37" s="46">
         <v>45876</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="G37" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="H37" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I37" s="26">
         <v>2</v>
@@ -3396,29 +3432,29 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="37">
+      <c r="A38" s="46">
         <v>45876</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="H38" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I38" s="26">
         <v>1</v>
@@ -3428,29 +3464,29 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="37">
+      <c r="A39" s="46">
         <v>45876</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="G39" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="H39" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I39" s="26">
         <v>15</v>
@@ -3460,29 +3496,29 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="37">
+      <c r="A40" s="46">
         <v>45877</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="47" t="s">
+      <c r="E40" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="F40" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="H40" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I40" s="26">
         <v>3</v>
@@ -3492,29 +3528,29 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="37">
+      <c r="A41" s="46">
         <v>45877</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="47" t="s">
+      <c r="E41" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="43" t="s">
-        <v>154</v>
-      </c>
       <c r="F41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="H41" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I41" s="26">
         <v>1</v>
@@ -3524,29 +3560,29 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="37">
+      <c r="A42" s="46">
         <v>45877</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="47" t="s">
+      <c r="E42" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>157</v>
-      </c>
       <c r="F42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="H42" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I42" s="26">
         <v>1</v>
@@ -3556,29 +3592,29 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="37">
+      <c r="A43" s="46">
         <v>45880</v>
       </c>
       <c r="B43" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="47" t="s">
+      <c r="E43" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="43" t="s">
-        <v>160</v>
-      </c>
       <c r="F43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="H43" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I43" s="26">
         <v>1</v>
@@ -3588,29 +3624,29 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="37">
+      <c r="A44" s="46">
         <v>45883</v>
       </c>
       <c r="B44" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>162</v>
-      </c>
       <c r="F44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="H44" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I44" s="26">
         <v>1</v>
@@ -3620,29 +3656,29 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="37">
+      <c r="A45" s="46">
         <v>45883</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>164</v>
-      </c>
       <c r="F45" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="H45" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I45" s="26">
         <v>1</v>
@@ -3652,29 +3688,29 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="37">
+      <c r="A46" s="46">
         <v>45884</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="F46" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="43" t="s">
+      <c r="H46" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>169</v>
       </c>
       <c r="I46" s="26">
         <v>6</v>
@@ -3684,29 +3720,29 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="37">
+      <c r="A47" s="46">
         <v>45884</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="D47" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="43" t="s">
+      <c r="H47" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>169</v>
       </c>
       <c r="I47" s="26">
         <v>3</v>
@@ -3716,29 +3752,29 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="37">
+      <c r="A48" s="46">
         <v>45884</v>
       </c>
       <c r="B48" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>173</v>
-      </c>
       <c r="F48" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="H48" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I48" s="26">
         <v>1</v>
@@ -3748,29 +3784,29 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="37">
+      <c r="A49" s="46">
         <v>45884</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="G49" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="H49" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I49" s="26">
         <v>4</v>
@@ -3780,29 +3816,29 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="37">
+      <c r="A50" s="46">
         <v>45884</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="G50" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="H50" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I50" s="26">
         <v>2</v>
@@ -3812,29 +3848,29 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="37">
+      <c r="A51" s="46">
         <v>45884</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="G51" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="H51" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I51" s="26">
         <v>1</v>
@@ -3844,29 +3880,29 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="37">
+      <c r="A52" s="46">
         <v>45884</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="G52" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="H52" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I52" s="26">
         <v>4</v>
@@ -3876,29 +3912,29 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="37">
+      <c r="A53" s="46">
         <v>45884</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="G53" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="H53" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I53" s="26">
         <v>3</v>
@@ -3908,29 +3944,29 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="37">
+      <c r="A54" s="46">
         <v>45884</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="G54" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="H54" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I54" s="26">
         <v>2</v>
@@ -3940,29 +3976,29 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="37">
+      <c r="A55" s="46">
         <v>45884</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="G55" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="H55" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I55" s="26">
         <v>2</v>
@@ -3972,29 +4008,29 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="37">
+      <c r="A56" s="46">
         <v>45884</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="G56" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="H56" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="I56" s="26">
         <v>7</v>
@@ -4004,29 +4040,29 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="37">
+      <c r="A57" s="46">
         <v>45885</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="43" t="s">
+      <c r="F57" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F57" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>140</v>
+      <c r="H57" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="I57" s="26">
         <v>1</v>
@@ -4036,63 +4072,63 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="40"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="34"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="34"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="35"/>
-      <c r="E60" s="40"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="34"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" t="s">
         <v>185</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>186</v>
       </c>
-      <c r="D61" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="40"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="34"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="51">
+      <c r="A62" s="52">
         <v>45832</v>
       </c>
       <c r="B62">
@@ -4104,15 +4140,15 @@
       <c r="D62" s="19">
         <v>4990.16</v>
       </c>
-      <c r="E62" s="40"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="34"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="51">
+      <c r="A63" s="52">
         <v>45835</v>
       </c>
       <c r="B63">
@@ -4124,15 +4160,15 @@
       <c r="D63" s="19">
         <v>7284.9</v>
       </c>
-      <c r="E63" s="40"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="34"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="34"/>
       <c r="J63" s="34"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="51">
+      <c r="A64" s="52">
         <v>45846</v>
       </c>
       <c r="B64">
@@ -4144,15 +4180,15 @@
       <c r="D64" s="19">
         <v>4483.26</v>
       </c>
-      <c r="E64" s="40"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="34"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="51">
+      <c r="A65" s="52">
         <v>45847</v>
       </c>
       <c r="B65">
@@ -4164,15 +4200,15 @@
       <c r="D65" s="19">
         <v>6941.22</v>
       </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="34"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="34"/>
       <c r="J65" s="34"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="51">
+      <c r="A66" s="52">
         <v>45848</v>
       </c>
       <c r="B66">
@@ -4184,15 +4220,15 @@
       <c r="D66" s="19">
         <v>188559.95</v>
       </c>
-      <c r="E66" s="40"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="34"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="34"/>
       <c r="J66" s="34"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="51">
+      <c r="A67" s="52">
         <v>45849</v>
       </c>
       <c r="B67">
@@ -4204,15 +4240,15 @@
       <c r="D67" s="19">
         <v>2861.04</v>
       </c>
-      <c r="E67" s="40"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="34"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="34"/>
       <c r="J67" s="34"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="51">
+      <c r="A68" s="52">
         <v>45852</v>
       </c>
       <c r="B68">
@@ -4224,15 +4260,15 @@
       <c r="D68" s="19">
         <v>7808.16</v>
       </c>
-      <c r="E68" s="40"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="34"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="34"/>
       <c r="J68" s="34"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="51">
+      <c r="A69" s="52">
         <v>45854</v>
       </c>
       <c r="B69">
@@ -4244,15 +4280,15 @@
       <c r="D69" s="19">
         <v>13988.66</v>
       </c>
-      <c r="E69" s="40"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="34"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="34"/>
       <c r="J69" s="34"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="51">
+      <c r="A70" s="52">
         <v>45855</v>
       </c>
       <c r="B70">
@@ -4264,15 +4300,15 @@
       <c r="D70" s="19">
         <v>7046.34</v>
       </c>
-      <c r="E70" s="40"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="34"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="34"/>
       <c r="J70" s="34"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="51">
+      <c r="A71" s="52">
         <v>45857</v>
       </c>
       <c r="B71">
@@ -4284,15 +4320,15 @@
       <c r="D71" s="19">
         <v>94065.12</v>
       </c>
-      <c r="E71" s="40"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="34"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="34"/>
       <c r="J71" s="34"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="51">
+      <c r="A72" s="52">
         <v>45858</v>
       </c>
       <c r="B72">
@@ -4304,15 +4340,15 @@
       <c r="D72" s="19">
         <v>11084.86</v>
       </c>
-      <c r="E72" s="40"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="34"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="34"/>
       <c r="J72" s="34"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="51">
+      <c r="A73" s="52">
         <v>45859</v>
       </c>
       <c r="B73">
@@ -4324,15 +4360,15 @@
       <c r="D73" s="19">
         <v>58650</v>
       </c>
-      <c r="E73" s="40"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="34"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="51">
+      <c r="A74" s="52">
         <v>45861</v>
       </c>
       <c r="B74">
@@ -4344,15 +4380,15 @@
       <c r="D74" s="19">
         <v>2999.95</v>
       </c>
-      <c r="E74" s="40"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="34"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="51">
+      <c r="A75" s="52">
         <v>45863</v>
       </c>
       <c r="B75">
@@ -4364,15 +4400,15 @@
       <c r="D75" s="19">
         <v>14232.75</v>
       </c>
-      <c r="E75" s="40"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="34"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="34"/>
       <c r="J75" s="34"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="51">
+      <c r="A76" s="52">
         <v>45865</v>
       </c>
       <c r="B76">
@@ -4384,15 +4420,15 @@
       <c r="D76" s="19">
         <v>17079.300000000003</v>
       </c>
-      <c r="E76" s="40"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="34"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="51">
+      <c r="A77" s="52">
         <v>45868</v>
       </c>
       <c r="B77">
@@ -4404,15 +4440,15 @@
       <c r="D77" s="19">
         <v>31177.55</v>
       </c>
-      <c r="E77" s="40"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="34"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="51">
+      <c r="A78" s="52">
         <v>45871</v>
       </c>
       <c r="B78">
@@ -4424,15 +4460,15 @@
       <c r="D78" s="19">
         <v>3890</v>
       </c>
-      <c r="E78" s="40"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="34"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="34"/>
       <c r="J78" s="34"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="51">
+      <c r="A79" s="52">
         <v>45876</v>
       </c>
       <c r="B79">
@@ -4444,15 +4480,15 @@
       <c r="D79" s="19">
         <v>114210</v>
       </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="34"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="34"/>
       <c r="J79" s="34"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="51">
+      <c r="A80" s="52">
         <v>45877</v>
       </c>
       <c r="B80">
@@ -4464,15 +4500,15 @@
       <c r="D80" s="19">
         <v>19035</v>
       </c>
-      <c r="E80" s="40"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="34"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="34"/>
       <c r="J80" s="34"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="51">
+      <c r="A81" s="52">
         <v>45879</v>
       </c>
       <c r="B81">
@@ -4484,15 +4520,15 @@
       <c r="D81" s="19">
         <v>68816.399999999994</v>
       </c>
-      <c r="E81" s="40"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="34"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="51">
+      <c r="A82" s="52">
         <v>45880</v>
       </c>
       <c r="B82">
@@ -4506,7 +4542,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="51">
+      <c r="A83" s="52">
         <v>45883</v>
       </c>
       <c r="B83">
@@ -4520,7 +4556,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="51">
+      <c r="A84" s="52">
         <v>45884</v>
       </c>
       <c r="B84">
@@ -4534,7 +4570,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="51">
+      <c r="A85" s="52">
         <v>45885</v>
       </c>
       <c r="B85">
@@ -4548,8 +4584,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="51" t="s">
-        <v>188</v>
+      <c r="A86" s="52" t="s">
+        <v>187</v>
       </c>
       <c r="B86">
         <v>56</v>
@@ -4592,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4619,36 +4655,36 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -4659,31 +4695,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
@@ -4694,31 +4730,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J4" s="12">
         <v>1</v>
@@ -4729,31 +4765,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -4764,31 +4800,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
@@ -4802,28 +4838,28 @@
         <v>45865</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
@@ -4837,28 +4873,28 @@
         <v>45865</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J8" s="17">
         <v>3</v>
@@ -4872,28 +4908,28 @@
         <v>45865</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J9" s="17">
         <v>2</v>
@@ -4907,25 +4943,25 @@
         <v>45877</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" t="s">
         <v>138</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>139</v>
-      </c>
-      <c r="I10" t="s">
-        <v>140</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4939,25 +4975,25 @@
         <v>45877</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
         <v>138</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>139</v>
-      </c>
-      <c r="I11" t="s">
-        <v>140</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4971,25 +5007,25 @@
         <v>45876</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>138</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>139</v>
-      </c>
-      <c r="I12" t="s">
-        <v>140</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -5003,25 +5039,25 @@
         <v>45876</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
         <v>137</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>138</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>139</v>
-      </c>
-      <c r="I13" t="s">
-        <v>140</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -5035,25 +5071,25 @@
         <v>45876</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
         <v>137</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>138</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>139</v>
-      </c>
-      <c r="I14" t="s">
-        <v>140</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -5067,25 +5103,25 @@
         <v>45876</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
         <v>137</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>138</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>139</v>
-      </c>
-      <c r="I15" t="s">
-        <v>140</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5099,25 +5135,25 @@
         <v>45876</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>138</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>139</v>
-      </c>
-      <c r="I16" t="s">
-        <v>140</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -5131,25 +5167,25 @@
         <v>45880</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
         <v>138</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>139</v>
-      </c>
-      <c r="I17" t="s">
-        <v>140</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5163,25 +5199,25 @@
         <v>45877</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
         <v>138</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>139</v>
-      </c>
-      <c r="I18" t="s">
-        <v>140</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -5195,7 +5231,7 @@
         <v>393</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J23">
         <f>SUM('Fila de atendimento CV''s - MÊS'!J9:J13)</f>
@@ -5208,7 +5244,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J24">
         <f>SUM(J2:J18)</f>
@@ -5221,7 +5257,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C6">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
